--- a/クリニック情報.xlsx
+++ b/クリニック情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66d29f8a4550a11/Desktop/persona_render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB78546C-C593-4514-ABE3-89F6E9ADE828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{AB78546C-C593-4514-ABE3-89F6E9ADE828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA666D21-7C13-44E3-AF08-2664F1396D0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C41885C-F689-4714-8F73-A73D5C89D543}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C41885C-F689-4714-8F73-A73D5C89D543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,58 +58,80 @@
     <t>主なターゲット層</t>
   </si>
   <si>
-    <t>明嵐医院</t>
-    <rPh sb="0" eb="1">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>アラシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <t>眼科</t>
+  </si>
+  <si>
+    <t>テスト医院</t>
+    <rPh sb="3" eb="5">
       <t>イイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都港区赤坂4-9-11-202</t>
+    <t>東京都千代田区丸の内1-1-1</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナトク</t>
+    <rPh sb="3" eb="7">
+      <t>チヨダク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>アカサカ</t>
+    <rPh sb="7" eb="8">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>眼科</t>
-  </si>
-  <si>
-    <t>ホスピタリティが高い、小児に特化</t>
-    <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウニ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トッカ</t>
-    </rPh>
+    <t>医療技術・設備面
+最新OCT（光干渉断層計）導入 - 網膜の詳細な断層撮影により早期診断が可能
+日帰り白内障手術対応 - 多焦点眼内レンズ含む豊富な選択肢
+緑内障専門外来 - 視野検査・眼圧測定の充実した設備
+小児眼科専門医在籍 - 弱視・斜視治療の専門的対応
+レーザー治療設備完備 - 糖尿病網膜症・網膜裂孔の治療
+コンタクトレンズ専門検査 - 角膜形状解析装置による精密フィッティング
+サービス面
+予約システム充実 - WEB予約・LINE予約対応
+土曜日診療 - 平日忙しい方への配慮
+駅徒歩3分の立地 - アクセス良好
+院内処方対応 - 薬局に行く手間を省略
+多言語対応 - 英語・中国語での診療可能
+キッズスペース完備 - 子連れでも安心
+専門性
+糖尿病眼科連携 - 内科クリニックとの密接な連携体制
+加齢黄斑変性症治療 - 抗VEGF療法の豊富な実績
+ドライアイ専門治療 - IPL（光治療）・涙点プラグ対応
+眼精疲労外来 - VDT症候群の専門的アプローチ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>若い子連れ</t>
-    <rPh sb="0" eb="1">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヅ</t>
-    </rPh>
+    <t>プライマリーターゲット
+40-60代のビジネスパーソン
+特徴: デスクワーク中心、眼精疲労・ドライアイに悩む
+ニーズ: 平日夜間・土曜診療、短時間での精密検査
+アプローチ: 「疲れ目から始まる眼病リスク」の啓発
+65歳以上の高齢者
+特徴: 白内障・緑内障・加齢黄斑変性のリスク層
+ニーズ: 丁寧な説明、アクセスの良さ、日帰り手術
+アプローチ: 「見える喜びを取り戻す」メッセージ
+30-40代の子育て世代
+特徴: 子どもの視力・眼の健康を心配する親
+ニーズ: 小児眼科専門医、親子同時受診、キッズ対応
+アプローチ: 「お子様の将来の視力を守る」訴求
+セカンダリーターゲット
+20-30代のデジタルネイティブ世代
+特徴: スマホ・PC使用時間が長い、コンタクト使用者多数
+ニーズ: WEB予約、短時間診療、コンタクト処方
+アプローチ: SNS活用、「デジタル時代の目の健康」
+糖尿病患者・予備軍
+特徴: 40歳以上、生活習慣病リスク保有
+ニーズ: 定期的な眼底検査、内科との連携
+アプローチ: 「糖尿病合併症予防」の専門性アピール
+スポーツ愛好者
+特徴: アクティブライフスタイル、スポーツビジョン重視
+ニーズ: 外傷対応、スポーツ用コンタクト・保護具
+アプローチ: 「スポーツパフォーマンス向上」の視点</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,12 +181,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,10 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +528,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -535,23 +556,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>1070052</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
